--- a/result/NCDC_weather_data/stations_imputed/55578099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/55578099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>2.212092</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>11.88360033050848</v>
+      </c>
       <c r="O2" t="n">
         <v>100.58</v>
       </c>
